--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4636.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4636.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4492,10 +4493,6 @@
           <t>4419</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4511,9 +4508,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4529,9 +4523,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4544,10 +4535,6 @@
           <t>4474</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4560,177 +4547,465 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.74%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr">
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4738,25 +5013,8 @@
           <t>4656</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4764,15 +5022,14 @@
           <t>4658</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4782,27 +5039,14 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.74%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4812,13 +5056,14 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -4830,13 +5075,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4844,11 +5082,16 @@
           <t>4731</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4858,9 +5101,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4636.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4636.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1931,7 +1930,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4493,6 +4492,10 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4508,6 +4511,9 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4523,6 +4529,9 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4535,6 +4544,10 @@
           <t>4474</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4547,6 +4560,10 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4562,6 +4579,9 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4587,6 +4607,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4602,6 +4623,9 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4627,6 +4651,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4639,6 +4664,10 @@
           <t>4559</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4664,6 +4693,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4676,6 +4706,10 @@
           <t>4620</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4688,6 +4722,10 @@
           <t>4622</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4713,6 +4751,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4728,6 +4767,9 @@
       <c r="B16" t="n">
         <v>10</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4770,6 +4812,10 @@
           <t>4700</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4782,6 +4828,10 @@
           <t>4727</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4794,6 +4844,11 @@
           <t>4731</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4801,306 +4856,11 @@
           <t>4751</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4415</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4751</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4636.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4636.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>10/02/2018</t>
@@ -760,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>29/07/2018</t>
@@ -807,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/08/2018</t>
@@ -854,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>05/08/2018</t>
@@ -953,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>30/09/2018</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/11/2018</t>
@@ -1151,6 +1156,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1198,6 +1204,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>03/03/2019</t>
@@ -1297,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -1344,6 +1352,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>13/03/2019</t>
@@ -1391,6 +1400,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>16/03/2019</t>
@@ -1490,6 +1500,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>02/06/2019</t>
@@ -1537,6 +1548,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -1636,6 +1648,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>04/02/2020</t>
@@ -1683,6 +1696,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>09/02/2020</t>
@@ -1730,6 +1744,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>29/02/2020</t>
@@ -1777,6 +1792,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -1824,6 +1840,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>02/04/2021</t>
@@ -1871,6 +1888,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>04/04/2021</t>
@@ -1918,6 +1936,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1965,6 +1984,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>19/01/2022</t>
@@ -2012,6 +2032,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -2163,6 +2184,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -2262,6 +2284,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>19/07/2022</t>
@@ -2361,6 +2384,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -2408,6 +2432,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -2507,6 +2532,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>29/01/2023</t>
@@ -2658,6 +2684,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>21/03/2023</t>
@@ -4438,431 +4465,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.74%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4731</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4751</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>